--- a/pred_ohlcv/54_21/2019-10-14 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 FAB ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>379765.4480786834</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>12852020.26561947</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>11469716.51723428</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>11486825.94253428</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>11486813.58653428</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>11486813.58653428</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>10035957.3717491</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>10035807.3717491</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>12130449.04062773</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>12160554.67282773</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>12158079.25632773</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>11663499.82935337</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>11562810.82935337</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>11565010.82935337</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>11567421.82935337</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>11565842.82935337</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>11561722.82935337</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>13185477.44386533</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>14298144.21756019</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>14603456.09236019</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>15609016.11216533</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>16238965.64936533</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>16924453.40326533</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>18696102.57426533</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>23002903.19305096</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>22788600.66050995</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>25310866.58970995</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>25310866.58970995</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>25173719.21099159</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>25173719.21099159</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>24642947.07509159</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>24685500.67029159</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>24685500.67029159</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>24635435.67029159</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>24635446.67029159</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>24635446.67029159</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>24606137.86135476</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>24606137.86135476</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>24606137.86135476</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>24543023.60295476</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>24569945.86075476</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>26207469.57269855</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>26301980.4424957</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>25813061.38852175</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>25618718.32682175</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>25385896.87262175</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>24883063.40492175</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>24061827.76708592</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>25256688.21449997</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>25097352.38829997</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>24981579.61599997</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>24961387.16429997</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>24961387.16429997</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>24977656.13189997</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>24921928.84739997</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>25039114.15309997</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>25034082.15309997</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>25034082.15309997</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>25230019.49729997</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>25198946.02969997</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>25276874.36119772</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>25276874.36119772</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>25184734.47199772</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>25186416.04369772</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>24797150.09059997</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>24797161.09059997</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>24673593.34059997</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>24700579.55109997</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>24512754.99059997</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>24011147.71529997</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-14 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 FAB ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>379765.4480786834</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>442920.8229786834</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>442920.8229786834</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>12852020.26561947</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>11469716.51723428</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>11486825.94253428</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>11486813.58653428</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>11486813.58653428</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>10035957.3717491</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>10035807.3717491</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>12130449.04062773</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>12160554.67282773</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>12158079.25632773</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>11663499.82935337</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>11562810.82935337</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>11565010.82935337</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>11567421.82935337</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>11565842.82935337</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>11561722.82935337</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>13185477.44386533</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>14298144.21756019</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>14603456.09236019</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>15609016.11216533</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>16238965.64936533</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>16924453.40326533</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>18696102.57426533</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>23002903.19305096</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>23355572.4664743</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>22061151.49390995</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>22788600.66050995</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>23091069.42290995</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>22493373.37680995</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>22204246.38550995</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>25310866.58970995</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>25310866.58970995</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>25309423.70500994</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>25169111.13140994</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>25031985.64810994</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>25259143.79970994</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>25090638.78221406</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>25226025.42971406</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>25340503.76771817</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>25185291.72148747</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>25173719.21099159</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>25173719.21099159</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>25171141.26329159</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>24543023.60295476</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>24569945.86075476</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>23888970.63112174</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>24061827.76708592</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>25256688.21449997</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>25097352.38829997</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>24981579.61599997</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>24961387.16429997</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>24961387.16429997</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>24979892.30479997</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>24977656.13189997</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>24921928.84739997</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>25039114.15309997</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>25034082.15309997</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>25034082.15309997</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>25230019.49729997</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>25198946.02969997</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>25276874.36119772</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>25276874.36119772</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>25184734.47199772</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>25186416.04369772</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>24797150.09059997</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>24797161.09059997</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>24673593.34059997</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>24700579.55109997</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>24700579.55109997</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>24512754.99059997</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>24011147.71529997</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
